--- a/biology/Médecine/Dystrophies_musculaires_congénitales/Dystrophies_musculaires_congénitales.xlsx
+++ b/biology/Médecine/Dystrophies_musculaires_congénitales/Dystrophies_musculaires_congénitales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dystrophies_musculaires_cong%C3%A9nitales</t>
+          <t>Dystrophies_musculaires_congénitales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dystrophies musculaires congénitales regroupent un ensemble de pathologies définies par l’association d’une faiblesse musculaire présente à la naissance ou apparaissant dans les premiers mois de la vie à des signes histologiques précis à la biopsie musculaire. Il existe souvent une hypotonie musculaire, des contractures articulaires, ou une arthrogrypose 
 Les anomalies musculaires ne s’aggravent pas au cours de la vie ou alors très lentement.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dystrophies_musculaires_cong%C3%A9nitales</t>
+          <t>Dystrophies_musculaires_congénitales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>La dystrophie musculaire congénitale pure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Faiblesse musculaire avec hypotonie ou arthrogrypose
 A la biopsie musculaire le tissu musculaire présente un nombre important de tissu conjonctif ou de tissu graisseux mais absence de signe de nécrose ou de réparation musculaire
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dystrophies_musculaires_cong%C3%A9nitales</t>
+          <t>Dystrophies_musculaires_congénitales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,45 +560,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Causes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dystrophies musculaires syndromiques</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dystrophies_musculaires_cong%C3%A9nitales</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dystrophies_musculaires_cong%C3%A9nitales</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site en français de renseignement sur les maladies rares et les médicaments orphelins
 (en) Site en anglais Incontournable pour les maladies génétiques
 (en) Site européen sur l’étude des maladies neuromusculaires
-(en) Erynn Gordon, Eric P Hoffman, Elena Pegoraro, Congenital Muscular Dystrophy Overview in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+(en) Erynn Gordon, Eric P Hoffman, Elena Pegoraro, Congenital Muscular Dystrophy Overview in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
